--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3470.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.049781510052716</v>
+        <v>0.885583758354187</v>
       </c>
       <c r="B1">
-        <v>1.337487185712299</v>
+        <v>1.381412029266357</v>
       </c>
       <c r="C1">
-        <v>1.96429974045014</v>
+        <v>4.767478942871094</v>
       </c>
       <c r="D1">
-        <v>6.874715932631289</v>
+        <v>3.281548261642456</v>
       </c>
       <c r="E1">
-        <v>4.681186440499694</v>
+        <v>0.4603109359741211</v>
       </c>
     </row>
   </sheetData>
